--- a/EmotionRegulation/EmotionRegulationAsset/Results/Openness.xlsx
+++ b/EmotionRegulation/EmotionRegulationAsset/Results/Openness.xlsx
@@ -6,13 +6,13 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="R4519707be7d04003"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="Re2eaee5c91b44842"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <x:si>
     <x:t xml:space="preserve">MOOD     </x:t>
   </x:si>
@@ -38,13 +38,64 @@
     <x:t xml:space="preserve"> DOMINANT PERSONALITY </x:t>
   </x:si>
   <x:si>
+    <x:t>--</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Talk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cognitive Change</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Love</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hello</x:t>
+  </x:si>
+  <x:si>
+    <x:t>None</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Conversation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hug</x:t>
+  </x:si>
+  <x:si>
     <x:t>Distress</x:t>
   </x:si>
   <x:si>
+    <x:t>Discussion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Joy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Congrat</x:t>
+  </x:si>
+  <x:si>
     <x:t>Bye</x:t>
   </x:si>
   <x:si>
-    <x:t>Cognitive Change</x:t>
+    <x:t>Fired</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crash</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Profits</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Remorse</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pitty</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BecomeRich</x:t>
   </x:si>
   <x:si>
     <x:t>Low Conscientiousness</x:t>
@@ -53,7 +104,7 @@
     <x:t>Low Extraversion</x:t>
   </x:si>
   <x:si>
-    <x:t>Middle Neuroticism</x:t>
+    <x:t>Low Neuroticism</x:t>
   </x:si>
   <x:si>
     <x:t>Low Agreeableness</x:t>
@@ -62,7 +113,7 @@
     <x:t>High Openness</x:t>
   </x:si>
   <x:si>
-    <x:t>[Attention Deployment, Lightly]</x:t>
+    <x:t>[Attention Deployment, Strongly]</x:t>
   </x:si>
   <x:si>
     <x:t>[Cognitive Change, Strongly]</x:t>
@@ -402,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:dimension ref="A1:H11"/>
+  <x:dimension ref="A1:H22"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
@@ -436,13 +487,13 @@
     </x:row>
     <x:row r="2">
       <x:c r="A2">
-        <x:v>-0.653022050857544</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B2" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C2">
-        <x:v>2.1025922298431396</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D2" t="s">
         <x:v>9</x:v>
@@ -452,48 +503,235 @@
       </x:c>
     </x:row>
     <x:row r="3">
-      <x:c r="F3" t="s">
+      <x:c r="A3">
+        <x:v>0.6227638125419617</x:v>
+      </x:c>
+      <x:c r="B3" t="s">
         <x:v>11</x:v>
       </x:c>
+      <x:c r="C3">
+        <x:v>2.005167245864868</x:v>
+      </x:c>
+      <x:c r="D3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E3" t="s">
+        <x:v>13</x:v>
+      </x:c>
     </x:row>
     <x:row r="4">
-      <x:c r="F4" t="s">
-        <x:v>12</x:v>
+      <x:c r="A4">
+        <x:v>1.501367449760437</x:v>
+      </x:c>
+      <x:c r="B4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C4">
+        <x:v>2.8519487380981445</x:v>
+      </x:c>
+      <x:c r="D4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E4" t="s">
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
-      <x:c r="F5" t="s">
+      <x:c r="A5">
+        <x:v>3.0708096027374268</x:v>
+      </x:c>
+      <x:c r="B5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C5">
+        <x:v>5.108794689178467</x:v>
+      </x:c>
+      <x:c r="D5" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E5" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
-      <x:c r="F6" t="s">
-        <x:v>14</x:v>
+      <x:c r="A6">
+        <x:v>1.8259656429290771</x:v>
+      </x:c>
+      <x:c r="B6" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C6">
+        <x:v>3.8945672512054443</x:v>
+      </x:c>
+      <x:c r="D6" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E6" t="s">
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
-      <x:c r="F7" t="s">
-        <x:v>15</x:v>
+      <x:c r="A7">
+        <x:v>2.5605502128601074</x:v>
+      </x:c>
+      <x:c r="B7" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C7">
+        <x:v>2.4327354431152344</x:v>
+      </x:c>
+      <x:c r="D7" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E7" t="s">
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
-      <x:c r="G8" t="s">
-        <x:v>16</x:v>
+      <x:c r="A8">
+        <x:v>2.531139850616455</x:v>
+      </x:c>
+      <x:c r="B8" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C8">
+        <x:v>2.3228769302368164</x:v>
+      </x:c>
+      <x:c r="D8" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E8" t="s">
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
-      <x:c r="G9" t="s">
-        <x:v>17</x:v>
+      <x:c r="A9">
+        <x:v>2.5020673274993896</x:v>
+      </x:c>
+      <x:c r="B9" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C9">
+        <x:v>2.217979669570923</x:v>
+      </x:c>
+      <x:c r="D9" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E9" t="s">
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
-      <x:c r="G10" t="s">
+      <x:c r="A10">
+        <x:v>2.4733285903930664</x:v>
+      </x:c>
+      <x:c r="B10" t="s">
         <x:v>18</x:v>
       </x:c>
+      <x:c r="C10">
+        <x:v>2.117819309234619</x:v>
+      </x:c>
+      <x:c r="D10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E10" t="s">
+        <x:v>10</x:v>
+      </x:c>
     </x:row>
     <x:row r="11">
-      <x:c r="H11" t="s">
-        <x:v>19</x:v>
+      <x:c r="A11">
+        <x:v>5.037396430969238</x:v>
+      </x:c>
+      <x:c r="B11" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C11">
+        <x:v>8.347224235534668</x:v>
+      </x:c>
+      <x:c r="D11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12">
+      <x:c r="A12">
+        <x:v>3.6483700275421143</x:v>
+      </x:c>
+      <x:c r="B12" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C12">
+        <x:v>4.286074638366699</x:v>
+      </x:c>
+      <x:c r="D12" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E12" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13">
+      <x:c r="A13">
+        <x:v>3.041384220123291</x:v>
+      </x:c>
+      <x:c r="B13" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C13">
+        <x:v>1.8194401264190674</x:v>
+      </x:c>
+      <x:c r="D13" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E13" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14">
+      <x:c r="F14" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15">
+      <x:c r="F15" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c r="F16" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c r="F17" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c r="F18" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c r="G19" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c r="G20" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c r="G21" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c r="H22" t="s">
+        <x:v>36</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/EmotionRegulation/EmotionRegulationAsset/Results/Openness.xlsx
+++ b/EmotionRegulation/EmotionRegulationAsset/Results/Openness.xlsx
@@ -6,13 +6,13 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="Re2eaee5c91b44842"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="R45f27fb91a254f44"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <x:si>
     <x:t xml:space="preserve">MOOD     </x:t>
   </x:si>
@@ -38,64 +38,13 @@
     <x:t xml:space="preserve"> DOMINANT PERSONALITY </x:t>
   </x:si>
   <x:si>
-    <x:t>--</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Talk</x:t>
+    <x:t>Hate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fired</x:t>
   </x:si>
   <x:si>
     <x:t>Cognitive Change</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Love</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hello</x:t>
-  </x:si>
-  <x:si>
-    <x:t>None</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Conversation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hug</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Distress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Discussion</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Joy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Congrat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bye</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fired</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crash</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Profits</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Remorse</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pitty</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BecomeRich</x:t>
   </x:si>
   <x:si>
     <x:t>Low Conscientiousness</x:t>
@@ -453,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:dimension ref="A1:H22"/>
+  <x:dimension ref="A1:H11"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
@@ -487,13 +436,13 @@
     </x:row>
     <x:row r="2">
       <x:c r="A2">
-        <x:v>0</x:v>
+        <x:v>-1.087703824043274</x:v>
       </x:c>
       <x:c r="B2" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C2">
-        <x:v>0</x:v>
+        <x:v>3.5021755695343018</x:v>
       </x:c>
       <x:c r="D2" t="s">
         <x:v>9</x:v>
@@ -503,235 +452,48 @@
       </x:c>
     </x:row>
     <x:row r="3">
-      <x:c r="A3">
-        <x:v>0.6227638125419617</x:v>
-      </x:c>
-      <x:c r="B3" t="s">
+      <x:c r="F3" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C3">
-        <x:v>2.005167245864868</x:v>
-      </x:c>
-      <x:c r="D3" t="s">
+    </x:row>
+    <x:row r="4">
+      <x:c r="F4" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="E3" t="s">
+    </x:row>
+    <x:row r="5">
+      <x:c r="F5" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="4">
-      <x:c r="A4">
-        <x:v>1.501367449760437</x:v>
-      </x:c>
-      <x:c r="B4" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C4">
-        <x:v>2.8519487380981445</x:v>
-      </x:c>
-      <x:c r="D4" t="s">
+    <x:row r="6">
+      <x:c r="F6" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="E4" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5">
-      <x:c r="A5">
-        <x:v>3.0708096027374268</x:v>
-      </x:c>
-      <x:c r="B5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C5">
-        <x:v>5.108794689178467</x:v>
-      </x:c>
-      <x:c r="D5" t="s">
+    </x:row>
+    <x:row r="7">
+      <x:c r="F7" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="E5" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6">
-      <x:c r="A6">
-        <x:v>1.8259656429290771</x:v>
-      </x:c>
-      <x:c r="B6" t="s">
+    </x:row>
+    <x:row r="8">
+      <x:c r="G8" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C6">
-        <x:v>3.8945672512054443</x:v>
-      </x:c>
-      <x:c r="D6" t="s">
+    </x:row>
+    <x:row r="9">
+      <x:c r="G9" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="E6" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7">
-      <x:c r="A7">
-        <x:v>2.5605502128601074</x:v>
-      </x:c>
-      <x:c r="B7" t="s">
+    </x:row>
+    <x:row r="10">
+      <x:c r="G10" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C7">
-        <x:v>2.4327354431152344</x:v>
-      </x:c>
-      <x:c r="D7" t="s">
+    </x:row>
+    <x:row r="11">
+      <x:c r="H11" t="s">
         <x:v>19</x:v>
-      </x:c>
-      <x:c r="E7" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8">
-      <x:c r="A8">
-        <x:v>2.531139850616455</x:v>
-      </x:c>
-      <x:c r="B8" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C8">
-        <x:v>2.3228769302368164</x:v>
-      </x:c>
-      <x:c r="D8" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E8" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9">
-      <x:c r="A9">
-        <x:v>2.5020673274993896</x:v>
-      </x:c>
-      <x:c r="B9" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C9">
-        <x:v>2.217979669570923</x:v>
-      </x:c>
-      <x:c r="D9" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E9" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10">
-      <x:c r="A10">
-        <x:v>2.4733285903930664</x:v>
-      </x:c>
-      <x:c r="B10" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C10">
-        <x:v>2.117819309234619</x:v>
-      </x:c>
-      <x:c r="D10" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E10" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11">
-      <x:c r="A11">
-        <x:v>5.037396430969238</x:v>
-      </x:c>
-      <x:c r="B11" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C11">
-        <x:v>8.347224235534668</x:v>
-      </x:c>
-      <x:c r="D11" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E11" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12">
-      <x:c r="A12">
-        <x:v>3.6483700275421143</x:v>
-      </x:c>
-      <x:c r="B12" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C12">
-        <x:v>4.286074638366699</x:v>
-      </x:c>
-      <x:c r="D12" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E12" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13">
-      <x:c r="A13">
-        <x:v>3.041384220123291</x:v>
-      </x:c>
-      <x:c r="B13" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C13">
-        <x:v>1.8194401264190674</x:v>
-      </x:c>
-      <x:c r="D13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E13" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14">
-      <x:c r="F14" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15">
-      <x:c r="F15" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16">
-      <x:c r="F16" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17">
-      <x:c r="F17" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18">
-      <x:c r="F18" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19">
-      <x:c r="G19" t="s">
-        <x:v>33</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20">
-      <x:c r="G20" t="s">
-        <x:v>34</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21">
-      <x:c r="G21" t="s">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22">
-      <x:c r="H22" t="s">
-        <x:v>36</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/EmotionRegulation/EmotionRegulationAsset/Results/Openness.xlsx
+++ b/EmotionRegulation/EmotionRegulationAsset/Results/Openness.xlsx
@@ -6,13 +6,13 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="R45f27fb91a254f44"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="Rc299ee8f5a144c18"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <x:si>
     <x:t xml:space="preserve">MOOD     </x:t>
   </x:si>
@@ -38,15 +38,60 @@
     <x:t xml:space="preserve"> DOMINANT PERSONALITY </x:t>
   </x:si>
   <x:si>
+    <x:t>Distress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Talk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Attention Deployment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Love</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hello</x:t>
+  </x:si>
+  <x:si>
+    <x:t>None</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Conversation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hug</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Discussion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Joy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Congrat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bye</x:t>
+  </x:si>
+  <x:si>
     <x:t>Hate</x:t>
   </x:si>
   <x:si>
     <x:t>Fired</x:t>
   </x:si>
   <x:si>
+    <x:t>Situation Modification</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crash</x:t>
+  </x:si>
+  <x:si>
     <x:t>Cognitive Change</x:t>
   </x:si>
   <x:si>
+    <x:t>Profits</x:t>
+  </x:si>
+  <x:si>
     <x:t>Low Conscientiousness</x:t>
   </x:si>
   <x:si>
@@ -60,6 +105,12 @@
   </x:si>
   <x:si>
     <x:t>High Openness</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[Situation Selection, Weakly]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[Situation Modification, Strongly]</x:t>
   </x:si>
   <x:si>
     <x:t>[Attention Deployment, Strongly]</x:t>
@@ -402,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:dimension ref="A1:H11"/>
+  <x:dimension ref="A1:H22"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
@@ -436,13 +487,13 @@
     </x:row>
     <x:row r="2">
       <x:c r="A2">
-        <x:v>-1.087703824043274</x:v>
+        <x:v>-0.7413855195045471</x:v>
       </x:c>
       <x:c r="B2" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C2">
-        <x:v>3.5021755695343018</x:v>
+        <x:v>2.387104034423828</x:v>
       </x:c>
       <x:c r="D2" t="s">
         <x:v>9</x:v>
@@ -452,48 +503,211 @@
       </x:c>
     </x:row>
     <x:row r="3">
-      <x:c r="F3" t="s">
+      <x:c r="A3">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B3" t="s">
         <x:v>11</x:v>
       </x:c>
+      <x:c r="C3">
+        <x:v>1.7927955389022827</x:v>
+      </x:c>
+      <x:c r="D3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E3" t="s">
+        <x:v>13</x:v>
+      </x:c>
     </x:row>
     <x:row r="4">
-      <x:c r="F4" t="s">
-        <x:v>12</x:v>
+      <x:c r="A4">
+        <x:v>0.8303518295288086</x:v>
+      </x:c>
+      <x:c r="B4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C4">
+        <x:v>2.6735565662384033</x:v>
+      </x:c>
+      <x:c r="D4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E4" t="s">
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
-      <x:c r="F5" t="s">
+      <x:c r="A5">
+        <x:v>2.3478033542633057</x:v>
+      </x:c>
+      <x:c r="B5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C5">
+        <x:v>4.9165802001953125</x:v>
+      </x:c>
+      <x:c r="D5" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E5" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
-      <x:c r="F6" t="s">
-        <x:v>14</x:v>
+      <x:c r="A6">
+        <x:v>1.046940803527832</x:v>
+      </x:c>
+      <x:c r="B6" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C6">
+        <x:v>4.1016740798950195</x:v>
+      </x:c>
+      <x:c r="D6" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E6" t="s">
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
-      <x:c r="F7" t="s">
-        <x:v>15</x:v>
+      <x:c r="A7">
+        <x:v>1.7211663722991943</x:v>
+      </x:c>
+      <x:c r="B7" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C7">
+        <x:v>2.2095818519592285</x:v>
+      </x:c>
+      <x:c r="D7" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E7" t="s">
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
-      <x:c r="G8" t="s">
-        <x:v>16</x:v>
+      <x:c r="A8">
+        <x:v>0.7149765491485596</x:v>
+      </x:c>
+      <x:c r="B8" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C8">
+        <x:v>3.1760647296905518</x:v>
+      </x:c>
+      <x:c r="D8" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E8" t="s">
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
-      <x:c r="G9" t="s">
+      <x:c r="A9">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B9" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C9">
+        <x:v>1.3174933195114136</x:v>
+      </x:c>
+      <x:c r="D9" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E9" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10">
+      <x:c r="A10">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B10" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C10">
+        <x:v>1.5745996236801147</x:v>
+      </x:c>
+      <x:c r="D10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11">
+      <x:c r="A11">
+        <x:v>2.372433662414551</x:v>
+      </x:c>
+      <x:c r="B11" t="s">
         <x:v>17</x:v>
       </x:c>
-    </x:row>
-    <x:row r="10">
-      <x:c r="G10" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11">
-      <x:c r="H11" t="s">
-        <x:v>19</x:v>
+      <x:c r="C11">
+        <x:v>7.63873291015625</x:v>
+      </x:c>
+      <x:c r="D11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12">
+      <x:c r="F12" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13">
+      <x:c r="F13" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14">
+      <x:c r="F14" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15">
+      <x:c r="F15" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c r="F16" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c r="G17" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c r="G18" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c r="G19" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c r="G20" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c r="G21" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c r="H22" t="s">
+        <x:v>36</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
